--- a/routers/upload/车辆模板.xlsx
+++ b/routers/upload/车辆模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14920" tabRatio="500"/>
+    <workbookView windowWidth="18525" windowHeight="7860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="车辆导入" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>车牌号</t>
   </si>
@@ -28,7 +28,7 @@
     <t>车牌颜色</t>
   </si>
   <si>
-    <t>车辆载重（吨）</t>
+    <t>车辆载重（kg）</t>
   </si>
   <si>
     <t>车型</t>
@@ -43,7 +43,7 @@
     <t>道路运输证号</t>
   </si>
   <si>
-    <t>总质量（吨）</t>
+    <t>总质量（kg）</t>
   </si>
   <si>
     <t>能源类型</t>
@@ -106,11 +106,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,35 +135,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -171,7 +170,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,10 +205,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,85 +229,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,61 +312,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,115 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,8 +503,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,26 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -557,21 +559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,155 +577,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -749,21 +756,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -780,54 +790,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1107,34 +1117,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="20.2666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8083333333333" customWidth="1"/>
+    <col min="8" max="8" width="11.8074074074074" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="19.4416666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.4444444444444" style="3" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
     <col min="12" max="12" width="31.6666666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="11.525" customWidth="1"/>
-    <col min="15" max="15" width="20.975" customWidth="1"/>
+    <col min="13" max="13" width="11.2518518518519" customWidth="1"/>
+    <col min="14" max="14" width="11.5259259259259" customWidth="1"/>
+    <col min="15" max="15" width="20.9777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:15">
+    <row r="1" ht="15.75" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1150,81 +1160,81 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>9.6</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="11">
         <v>45</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="14">
         <v>42487</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="15">
         <v>42275</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1236,10 +1246,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"重型货车,中型货车,轻型货车,微型货车,低速货车,重型牵引车,中型牵引车,轻型牵引车,大型专项作业车,中型专项作业车,小型专项作业车,微型专项作业车,重型专项作业车,轻型专项作业车,其他"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"9.6,7.2,12.5,13,17.5,6.8,6.2,15,16,4.2,7.7,8.2,8.7,3.8,2.7,1.8,19,20,21  "</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/routers/upload/车辆模板.xlsx
+++ b/routers/upload/车辆模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\a\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F780AD-535E-4575-A1D3-6828343EBDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23325" windowHeight="9840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="车辆导入" sheetId="2" r:id="rId1"/>
@@ -34,96 +28,112 @@
     <t>车牌颜色</t>
   </si>
   <si>
+    <t>车型</t>
+  </si>
+  <si>
+    <t>车长</t>
+  </si>
+  <si>
     <t>车辆载重（kg）</t>
   </si>
   <si>
-    <t>车型</t>
-  </si>
-  <si>
-    <t>车长</t>
+    <t>总质量（kg）</t>
+  </si>
+  <si>
+    <t>能源类型</t>
+  </si>
+  <si>
+    <t>车辆所有人</t>
+  </si>
+  <si>
+    <t>使用性质</t>
+  </si>
+  <si>
+    <t>发证机关</t>
+  </si>
+  <si>
+    <t>注册日期</t>
+  </si>
+  <si>
+    <t>发证日期</t>
+  </si>
+  <si>
+    <t>道路运输证号</t>
+  </si>
+  <si>
+    <t>道路运输经营许可证号</t>
   </si>
   <si>
     <t>车架号</t>
   </si>
   <si>
-    <t>道路运输证号</t>
-  </si>
-  <si>
-    <t>总质量（kg）</t>
-  </si>
-  <si>
-    <t>能源类型</t>
-  </si>
-  <si>
-    <t>车辆所有人</t>
-  </si>
-  <si>
-    <t>使用性质</t>
-  </si>
-  <si>
-    <t>发证机关</t>
-  </si>
-  <si>
-    <t>注册日期</t>
-  </si>
-  <si>
-    <t>发证日期</t>
-  </si>
-  <si>
-    <t>道路运输经营许可证号</t>
-  </si>
-  <si>
     <t>京H5C328</t>
   </si>
   <si>
     <t>黄色</t>
   </si>
   <si>
+    <t>重型货车</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>重型货车</t>
+    <t>柴油</t>
+  </si>
+  <si>
+    <t>光头强物流有限公司</t>
+  </si>
+  <si>
+    <t>货运</t>
+  </si>
+  <si>
+    <t>青海省西宁市公安局交通管理支队</t>
+  </si>
+  <si>
+    <t>150123006736</t>
+  </si>
+  <si>
+    <t>320583002269</t>
   </si>
   <si>
     <t>1G1BL52P7TR115520</t>
-  </si>
-  <si>
-    <t>150123006736</t>
-  </si>
-  <si>
-    <t>柴油</t>
-  </si>
-  <si>
-    <t>光头强物流有限公司</t>
-  </si>
-  <si>
-    <t>货运</t>
-  </si>
-  <si>
-    <t>青海省西宁市公安局交通管理支队</t>
-  </si>
-  <si>
-    <t>320583002269</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -131,30 +141,161 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,7 +304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79992065187536243"/>
+        <fgColor theme="8" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,8 +314,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -182,72 +509,358 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -511,148 +1124,148 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="6" customWidth="1"/>
-    <col min="15" max="15" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11.2518518518519" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.74814814814815" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.74814814814815" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.74814814814815" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.8740740740741" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.74814814814815" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7481481481481" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.74814814814815" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34.1259259259259" style="4" customWidth="1"/>
+    <col min="11" max="12" width="11.5037037037037" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7481481481481" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7481481481481" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18" spans="1:15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8">
-        <v>9.6</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11">
+        <v>45</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="10">
-        <v>45</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="15">
+        <v>42487</v>
+      </c>
+      <c r="L2" s="16">
+        <v>42275</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="12">
-        <v>42487</v>
-      </c>
-      <c r="N2" s="13">
-        <v>42275</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"黄色,蓝色,绿色,黄绿色"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"重型货车,中型货车,轻型货车,微型货车,低速货车,重型牵引车,中型牵引车,轻型牵引车,大型专项作业车,中型专项作业车,小型专项作业车,微型专项作业车,重型专项作业车,轻型专项作业车,其他"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"9.6,7.2,12.5,13,17.5,6.8,6.2,15,16,4.2,7.7,8.2,8.7,3.8,2.7,1.8,19,20,21  "</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/routers/upload/车辆模板.xlsx
+++ b/routers/upload/车辆模板.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\ntocc_web\routers\upload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9DA0DC-9279-4762-B880-C21F0FFFC077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="810" windowWidth="27435" windowHeight="14790" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20325" windowHeight="11670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="车辆导入" sheetId="2" r:id="rId1"/>
+    <sheet name="VehicleType" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="省份">[1]Sheet2!$F$3208:$F$3238</definedName>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>车牌号</t>
   </si>
@@ -40,10 +35,10 @@
     <t>车长</t>
   </si>
   <si>
-    <t>车辆载重（kg）</t>
-  </si>
-  <si>
-    <t>总质量（kg）</t>
+    <t>车辆载重（吨）</t>
+  </si>
+  <si>
+    <t>总质量（吨）</t>
   </si>
   <si>
     <t>能源类型</t>
@@ -104,13 +99,178 @@
   </si>
   <si>
     <t>1G1BL52P7TR115520</t>
+  </si>
+  <si>
+    <t>微型普通货车</t>
+  </si>
+  <si>
+    <t>轻型普通货车</t>
+  </si>
+  <si>
+    <t>中型普通货车</t>
+  </si>
+  <si>
+    <t>重型普通货车</t>
+  </si>
+  <si>
+    <t>微型厢式货车</t>
+  </si>
+  <si>
+    <t>轻型厢式货车</t>
+  </si>
+  <si>
+    <t>中型厢式货车</t>
+  </si>
+  <si>
+    <t>重型厢式货车</t>
+  </si>
+  <si>
+    <t>中型集装厢车</t>
+  </si>
+  <si>
+    <t>重型集装厢车</t>
+  </si>
+  <si>
+    <t>微型仓栅式货车</t>
+  </si>
+  <si>
+    <t>轻型仓栅式货车</t>
+  </si>
+  <si>
+    <t>中型仓栅式货车</t>
+  </si>
+  <si>
+    <t>重型仓栅式货车</t>
+  </si>
+  <si>
+    <t>轻型牵引车</t>
+  </si>
+  <si>
+    <t>中型牵引车</t>
+  </si>
+  <si>
+    <t>重型牵引车</t>
+  </si>
+  <si>
+    <t>轻型半挂牵引车</t>
+  </si>
+  <si>
+    <t>中型半挂牵引车</t>
+  </si>
+  <si>
+    <t>重型半挂牵引车</t>
+  </si>
+  <si>
+    <t>轻型全挂牵引车</t>
+  </si>
+  <si>
+    <t>中型全挂牵引车</t>
+  </si>
+  <si>
+    <t>重型全挂牵引车</t>
+  </si>
+  <si>
+    <t>重型平板货车</t>
+  </si>
+  <si>
+    <t>中型平板货车</t>
+  </si>
+  <si>
+    <t>轻型平板货车</t>
+  </si>
+  <si>
+    <t>重型自卸货车</t>
+  </si>
+  <si>
+    <t>中型自卸货车</t>
+  </si>
+  <si>
+    <t>轻型自卸货车</t>
+  </si>
+  <si>
+    <t>微型自卸货车</t>
+  </si>
+  <si>
+    <t>重型封闭货车</t>
+  </si>
+  <si>
+    <t>中型封闭货车</t>
+  </si>
+  <si>
+    <t>轻型封闭货车</t>
+  </si>
+  <si>
+    <t>微型封闭货车</t>
+  </si>
+  <si>
+    <t>重型罐式货车</t>
+  </si>
+  <si>
+    <t>中型罐式货车</t>
+  </si>
+  <si>
+    <t>轻型罐式货车</t>
+  </si>
+  <si>
+    <t>微型罐式货车</t>
+  </si>
+  <si>
+    <t>重型特殊结构货车</t>
+  </si>
+  <si>
+    <t>中型特殊结构货车</t>
+  </si>
+  <si>
+    <t>轻型特殊结构货车</t>
+  </si>
+  <si>
+    <t>微型特殊结构货车</t>
+  </si>
+  <si>
+    <t>大型专项作业车</t>
+  </si>
+  <si>
+    <t>中型专项作业车</t>
+  </si>
+  <si>
+    <t>小型专项作业车</t>
+  </si>
+  <si>
+    <t>微型专项作业车</t>
+  </si>
+  <si>
+    <t>重型专项作业车</t>
+  </si>
+  <si>
+    <t>轻型专项作业车</t>
+  </si>
+  <si>
+    <t>微型货车</t>
+  </si>
+  <si>
+    <t>轻型货车</t>
+  </si>
+  <si>
+    <t>中型货车</t>
+  </si>
+  <si>
+    <t>低速货车</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,13 +297,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +457,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -165,11 +650,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -209,28 +936,72 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -494,39 +1265,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.2518518518519" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.74814814814815" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.74814814814815" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.74814814814815" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="34.125" style="4" customWidth="1"/>
-    <col min="11" max="12" width="11.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.8740740740741" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.74814814814815" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7481481481481" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.74814814814815" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34.1259259259259" style="4" customWidth="1"/>
+    <col min="11" max="12" width="11.5037037037037" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7481481481481" style="2" customWidth="1"/>
     <col min="14" max="14" width="23" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="22.7481481481481" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" ht="18" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -621,20 +1393,310 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B1048576">
       <formula1>"黄色,蓝色,绿色,黄绿色"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"重型货车,中型货车,轻型货车,微型货车,低速货车,重型牵引车,中型牵引车,轻型牵引车,大型专项作业车,中型专项作业车,小型专项作业车,微型专项作业车,重型专项作业车,轻型专项作业车,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D1048576">
       <formula1>"9.6,7.2,12.5,13,17.5,6.8,6.2,15,16,4.2,7.7,8.2,8.7,3.8,2.7,1.8,19,20,21  "</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C1048576">
+      <formula1>VehicleType!$B$1:$B$54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G1048576">
+      <formula1>"汽油,柴油,电,天然气,其他"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2 O3:O1048576"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/routers/upload/车辆模板.xlsx
+++ b/routers/upload/车辆模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11670" tabRatio="500"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="车辆导入" sheetId="2" r:id="rId1"/>
@@ -265,10 +265,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -297,8 +297,121 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,30 +426,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,103 +441,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -463,6 +463,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,174 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +648,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -668,45 +722,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -719,23 +734,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,160 +743,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -929,6 +929,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1335,13 +1336,13 @@
       <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1376,16 +1377,16 @@
       <c r="J2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="16">
         <v>42487</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="17">
         <v>42275</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="13" t="s">
@@ -1394,17 +1395,17 @@
     </row>
   </sheetData>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G1048576">
+      <formula1>"汽油,柴油,电,天然气,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B1048576">
       <formula1>"黄色,蓝色,绿色,黄绿色"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D1048576">
-      <formula1>"9.6,7.2,12.5,13,17.5,6.8,6.2,15,16,4.2,7.7,8.2,8.7,3.8,2.7,1.8,19,20,21  "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C1048576">
       <formula1>VehicleType!$B$1:$B$54</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G1048576">
-      <formula1>"汽油,柴油,电,天然气,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D1048576">
+      <formula1>"9.6,7.2,12.5,13,17.5,6.8,6.2,15,16,4.2,7.7,8.2,8.7,3.8,2.7,1.8,19,20,21  "</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2 O3:O1048576"/>
   </dataValidations>
